--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeaEU_IT.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeaEU_IT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B065AFC-1B9A-491C-815F-0249D49185A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C401E7-04D5-4223-ABEF-B940C47374DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="15480" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="294">
   <si>
     <t>UserName</t>
   </si>
@@ -908,6 +908,33 @@
   </si>
   <si>
     <t>Rubrica,I Miei ordini,Gift Registry,My Wishlist,GIFT CARD,I miei abbonamenti esauriti,Credito negozio,Metodi di pagamento memorizzati,Iscrizioni alla newsletter</t>
+  </si>
+  <si>
+    <t>Fliters</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>Zaini e borse</t>
+  </si>
+  <si>
+    <t>Accessori</t>
+  </si>
+  <si>
+    <t>Accessori Zaini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> €</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t>Cube</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1090,7 +1117,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3318,10 +3344,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EA8A0A-8AB3-4C75-B640-7EA39F21ED70}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3330,15 +3356,16 @@
     <col min="2" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3361,48 +3388,57 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -3424,93 +3460,117 @@
       <c r="G2" t="s">
         <v>96</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>282</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>283</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>7013</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>270</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="25"/>
+      <c r="Q3" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>175</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>271</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>205</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="N6" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" s="5"/>
+      <c r="Q6" t="s">
         <v>207</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>217</v>
       </c>
-      <c r="S8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" t="s">
-        <v>215</v>
+      <c r="U8" t="s">
+        <v>287</v>
+      </c>
+      <c r="V8" t="s">
+        <v>288</v>
+      </c>
+      <c r="W8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>291</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4730,7 +4790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B006AB-898C-4D28-9BA9-3207EC054E17}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -4851,7 +4911,7 @@
       <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" t="s">
         <v>284</v>
       </c>
       <c r="W3" s="5"/>
